--- a/biology/Médecine/Contracture/Contracture.xlsx
+++ b/biology/Médecine/Contracture/Contracture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une contracture, terme utilisé le plus souvent dans le milieu sportif, est une contraction musculaire involontaire d'un certain nombre de fibres musculaires au sein d'un même muscle ou d'un groupe musculaire, d'une durée inhabituellement longue, souvent douloureuse et normalement non associée à une lésion de la fibre musculaire.
 La contracture se produit le plus souvent au niveau des mollets, des cuisses, des fesses, du bas du dos, des gouttières vertébrales et du cou.
@@ -515,7 +527,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les contractures peuvent apparaître :
 après surentraînement sportif, utilisation excessive du muscle, surmenage ;
@@ -549,7 +563,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'examen clinique la contracture est facilement identifiable, car elle est dure et douloureuse, au toucher et à la palpation (point dur). On peut sentir de véritables zones indurées sous forme de boules ou de cordes au sein du muscle. Le muscle est douloureux également lors de son étirement passif ou de la contraction volontaire.
 </t>
@@ -580,7 +596,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le traitement est le suivant :
 arrêt de l'exercice musculaire au niveau du groupe touché et mise au repos ;
